--- a/pred_ohlcv/54_21/2020-01-20 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 LTC ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-3201.127432120001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3191.127432120001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3305.164032120001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3237.502232120001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3246.472132120001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3018.341032120001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3157.526932120001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3028.657832120001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2643.896401620001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2872.288801620001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2855.171601620001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2869.604601620001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2814.075452630001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2814.075452630001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2864.075452630001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2783.832052630001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2819.551152630001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2820.178952630001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2862.231552630001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2962.231552630001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2962.231552630001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2760.928652630001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2718.549252630001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2743.205852630001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2801.482552630001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2793.928952630001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2773.613352630001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2811.705752630001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1319.302652630001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1419.920652630001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1419.920652630001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1748.320652630001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1581.452452630001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1533.969952630001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1533.969952630001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1414.970152630001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1309.764152630001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1319.456652630001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1322.251352630001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1361.140952630001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1361.121452630001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1492.010752630001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1495.161352630001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1499.300552630001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1600.288552630001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1592.549352630001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1591.599652630001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1585.574952630001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1622.873652630002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1665.841452630001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1502.101452630001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1473.207852630001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1469.776952630001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1469.457352630001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1479.597552630001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1479.973552630001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1449.356752630001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1276.318752630001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1277.318752630001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1338.272052630001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1296.787452630001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1306.787452630001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1303.786452630001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1273.698352630001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1352.211252630001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1348.211252630001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1348.211252630001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1340.635252630001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1116.954352630001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1124.717252630001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1176.986152630001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1162.522152630001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1163.335752630001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1169.844952630001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1169.844952630001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-940.844952630001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-940.844952630001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-939.909152630001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-938.245152630001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-915.186452630001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1102.415652630001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1103.058652630001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1102.058652630001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1098.758652630001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-885.0584526300011</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1027.017752630001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1024.617752630001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1166.577052630001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1167.248052630001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1167.266452630001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1063.266452630001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1063.406452630001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1047.553752630001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1052.553752630001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1031.566052630001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1001.024052630001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-976.0240526300012</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-518.078754910001</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-515.4135549100009</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-385.3931549100009</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-331.201454910001</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-243.1890549100009</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-338.7473549100009</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-339.5079549100009</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-339.5079549100009</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-339.5179549100009</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-339.5279549100009</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-388.0461549100009</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-286.2303549100009</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-286.2303549100009</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-304.5212549100009</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-304.5112549100009</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-476.7535549100009</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-464.7535549100009</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-214.7435549100009</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-214.7435549100009</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-180.3611549100009</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>861.158745089999</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1117.091145089999</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1015.492345089999</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>927.5359450899989</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>943.4200450899989</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>898.6492450899989</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>898.6492450899989</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>904.0626811699989</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>887.0455811699989</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1113.677181169999</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1018.422781169999</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1198.922766879999</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1198.922766879999</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1291.387766879999</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1303.560966879999</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1303.560966879999</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1324.267367439999</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1239.554967439999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>984.0673674399991</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>600.124767439999</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>722.915467439999</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>722.915467439999</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>722.955467439999</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>722.945467439999</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>699.817167439999</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>615.2264674399991</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>580.9283674399991</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>484.9206674399991</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>802.179967439999</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>817.502567439999</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>970.8695674399989</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>969.4317674399989</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-5936.220613689998</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-6014.974513689997</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-6472.579013689998</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-5993.138413689998</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-5785.310513689998</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-5808.086322879997</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-6302.462422879998</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-6011.396732069998</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-5943.818732069997</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-5943.818732069997</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-6081.028832069997</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-6228.064132069997</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-6228.440832069997</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-6228.440832069997</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-6228.440832069997</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-6259.855732069997</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-6210.918732069997</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-6166.632332069997</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-6159.407132069997</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-6240.507383049999</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-5905.281383049999</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-5902.612483049999</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-5937.704583049999</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 LTC ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-3201.127432120001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3191.127432120001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3305.164032120001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3237.502232120001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3246.472132120001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3018.341032120001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3157.526932120001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3028.657832120001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2643.896401620001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2872.288801620001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2855.171601620001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2869.604601620001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2814.075452630001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2814.075452630001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2864.075452630001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2783.832052630001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2819.551152630001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2820.178952630001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2862.231552630001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2962.231552630001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2962.231552630001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2760.928652630001</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2718.549252630001</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2743.205852630001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2801.482552630001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2793.928952630001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2773.613352630001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2811.705752630001</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1319.302652630001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1419.920652630001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1419.920652630001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1748.320652630001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1581.452452630001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1533.969952630001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1533.969952630001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1414.970152630001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1309.764152630001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1319.456652630001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1322.251352630001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1361.140952630001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1361.121452630001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1492.010752630001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1495.161352630001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1499.300552630001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1600.288552630001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1592.549352630001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1591.599652630001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1585.574952630001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1622.873652630002</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1665.841452630001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1502.101452630001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1473.207852630001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1469.776952630001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1469.457352630001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1479.597552630001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1479.973552630001</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1449.356752630001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1276.318752630001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1277.318752630001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1338.272052630001</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1296.787452630001</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1306.787452630001</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1303.786452630001</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1273.698352630001</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1352.211252630001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1348.211252630001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1348.211252630001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1340.635252630001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1116.954352630001</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1124.717252630001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1176.986152630001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1162.522152630001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1163.335752630001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1169.844952630001</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1169.844952630001</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-940.844952630001</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-940.844952630001</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-939.909152630001</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-938.245152630001</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-915.186452630001</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1102.415652630001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1103.058652630001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1102.058652630001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1098.758652630001</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-885.0584526300011</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1027.017752630001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1024.617752630001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1166.577052630001</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1167.248052630001</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1167.266452630001</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1063.266452630001</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1063.406452630001</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1047.553752630001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1052.553752630001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1031.566052630001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1001.024052630001</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-976.0240526300012</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-518.078754910001</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-515.4135549100009</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-385.3931549100009</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-331.201454910001</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-243.1890549100009</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-338.7473549100009</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-339.5079549100009</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-339.5079549100009</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-339.5179549100009</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-339.5279549100009</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-388.0461549100009</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-286.2303549100009</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-286.2303549100009</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-304.5212549100009</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-304.5112549100009</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-476.7535549100009</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-464.7535549100009</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-214.7435549100009</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-214.7435549100009</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-180.3611549100009</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>835.1276450899991</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>888.1389450899991</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1018.986445089999</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>861.158745089999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1117.091145089999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1015.492345089999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>927.5359450899989</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>943.4200450899989</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>898.6492450899989</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>898.6492450899989</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>879.1682811699989</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>904.0626811699989</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>887.0455811699989</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1113.677181169999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1018.422781169999</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1198.922766879999</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1198.922766879999</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1291.387766879999</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1303.560966879999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1303.560966879999</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1324.267367439999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1239.554967439999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>984.0673674399991</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>600.124767439999</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>722.915467439999</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>722.915467439999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>722.955467439999</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>722.945467439999</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>699.817167439999</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>615.2264674399991</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>580.9283674399991</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>484.9206674399991</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>802.179967439999</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>817.502567439999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>970.8695674399989</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>969.4317674399989</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>949.4377674399989</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>910.6639674399988</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>865.9546674399988</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>247.0915788299988</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>150.3620788299989</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>174.3364788299989</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>189.7321788299989</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>189.7321788299989</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>180.6982788299989</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>184.6982788299989</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>105.8780788299989</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>127.5362788299989</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>339.6034788299989</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>568.2516788299989</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>574.3378788299989</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>477.1622788299989</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>581.5302788299989</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>578.7076788299989</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>577.725278829999</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>577.725278829999</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>606.7154788299989</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>573.9153788299989</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>558.6144788299989</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>439.9598788299989</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>406.2630788299989</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>480.6057788299989</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>474.9403788299989</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>489.3122788299989</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>489.3122788299989</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-846.7387211700011</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-876.4375211700011</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-5936.220613689998</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-6014.974513689997</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-6472.579013689998</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-5993.138413689998</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-5785.310513689998</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-5808.086322879997</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-6302.462422879998</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-6011.396732069998</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-5943.818732069997</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-5943.818732069997</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-6081.028832069997</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-6228.064132069997</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-6228.440832069997</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-6228.440832069997</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-6228.440832069997</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-6259.855732069997</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-6210.918732069997</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-6166.632332069997</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-6159.407132069997</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-5900.249983049998</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-6231.079183049998</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-5905.281383049999</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-5902.612483049999</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-5937.704583049999</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-5937.704583049999</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-5934.704583049999</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-5934.704583049999</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
